--- a/results/I3_N5_M2_T30_C100_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2837.164576415863</v>
+        <v>855.9336523010086</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.18908287451453</v>
+        <v>19.25725746793464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.660033934170055</v>
+        <v>7.914384263498912</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.505527475512527</v>
+        <v>4.590779096572889</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2168.790000000007</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>652.3399999999999</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -653,31 +653,9 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -755,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -846,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -857,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -868,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -879,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -951,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23.8863479000213</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.122498527679113</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.37739353073907</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.845188035790088</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.15481196420991</v>
+        <v>27.72327375283629</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.72327375283629</v>
+        <v>24.79834375740629</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1065,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1079,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1093,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1101,13 +1079,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1118,10 +1096,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1132,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1146,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1160,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1171,13 +1149,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1188,54 +1166,12 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1338,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>136.605</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1349,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>147.39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1360,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>149.995</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1371,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>145.9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>242.8650000000008</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -1404,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>257.2550000000008</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
@@ -1415,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>257.7200000000008</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -1426,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>257.8600000000008</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
@@ -1437,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>257.6600000000008</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -1448,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1459,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1470,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1481,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1492,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1503,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>165.1699999999998</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1514,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>152.8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1525,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>167.8399999999998</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1536,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>164.4249999999998</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1547,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>160.8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1558,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1569,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1580,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1591,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1602,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1613,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>165.1699999999998</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
@@ -1624,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.8</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34">
@@ -1635,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>167.8399999999998</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35">
@@ -1646,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>164.4249999999998</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
@@ -1657,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>160.8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
@@ -1668,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>242.8650000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1679,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>257.2550000000008</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1690,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>257.7200000000008</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1701,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>257.8600000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1712,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>257.6600000000008</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>65.16999999999979</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1770,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>52.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>67.83999999999978</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1792,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>64.42499999999978</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1803,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>60.8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1814,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>142.8650000000008</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1825,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>157.2550000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1836,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>157.7200000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1847,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>157.8600000000008</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>157.6600000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1916,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1927,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1938,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1949,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1960,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1971,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1982,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1993,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2004,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2015,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2026,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2037,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2048,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2059,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2070,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2081,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2092,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2103,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2114,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2125,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2136,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2147,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2158,7 +2094,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2169,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2213,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2224,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2235,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2246,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2254,10 +2190,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2268,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2279,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2290,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2301,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2309,10 +2245,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2323,53 +2259,9 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
